--- a/biology/Botanique/Tillandsia_tristis/Tillandsia_tristis.xlsx
+++ b/biology/Botanique/Tillandsia_tristis/Tillandsia_tristis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia tristis Mez est une plante de la famille des Bromeliaceae.
 L'épithète tristis signifie « d'aspect terne » et se rapporte au coloris brunâtre des bractées de l'inflorescence.
@@ -512,10 +524,12 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia tristis Mez in C.DC., Monogr. Phan. 9: 762, n° 116 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « inflorescentia basi tri-, medium versus bipinnatim panniculata[sic] ; spicis lateralibus saltem flores ad 20 optime secunde solum versus spectantes gerentibus ; bracteolis florigeris sepala bene superantibus ; floribus suberectis ; sepalis liberis, valde asymmetricis. »
 Type : « Columbia, loco ignoto : Triana » ; Herb. Mus. Brit.
 Taxon initialement décrit à partir d'une inflorescence isolée conservée en herbier.
@@ -547,7 +561,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Biotype : plante vivace herbacée.
 Habitat : ?
@@ -635,10 +655,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
- Colombie[1]</t>
+ Colombie</t>
         </is>
       </c>
     </row>
@@ -667,6 +689,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
